--- a/data/sample/relius_roth_basis_sample.xlsx
+++ b/data/sample/relius_roth_basis_sample.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,24 +473,24 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>333445555</t>
+          <t>280663408</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Mia</t>
+          <t>Valerie</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Chen</t>
+          <t>House</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="F2" t="n">
-        <v>10017.34</v>
+        <v>11451.41</v>
       </c>
     </row>
     <row r="3">
@@ -501,22 +501,24 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>555667777</t>
+          <t>544573199</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Zoe</t>
+          <t>Amanda</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Lopez</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
+          <t>Hutchinson</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>2016</v>
+      </c>
       <c r="F3" t="n">
-        <v>6777.65</v>
+        <v>16468.65</v>
       </c>
     </row>
     <row r="4">
@@ -527,23 +529,2799 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>106938824</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Christopher</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Thomas</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>2013</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7646.09</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>316840456</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Shawn</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>2010</v>
+      </c>
+      <c r="F5" t="n">
+        <v>9302.48</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>141808469</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Jill</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Rivera</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>2002</v>
+      </c>
+      <c r="F6" t="n">
+        <v>17062.7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>112711613</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Contreras</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>2008</v>
+      </c>
+      <c r="F7" t="n">
+        <v>7455.95</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>134147518</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Frederick</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Thomas</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>2011</v>
+      </c>
+      <c r="F8" t="n">
+        <v>15171.86</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>337109536</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Aaron</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Pratt</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>15238.12</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>587047526</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Jacqueline</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>West</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>2004</v>
+      </c>
+      <c r="F10" t="n">
+        <v>9636.51</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>551240656</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Andrew</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Fletcher</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>2008</v>
+      </c>
+      <c r="F11" t="n">
+        <v>6548.11</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>796082583</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Timothy</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Livingston</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>2014</v>
+      </c>
+      <c r="F12" t="n">
+        <v>17867.83</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>265715928</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Matthew</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Phelps</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>2004</v>
+      </c>
+      <c r="F13" t="n">
+        <v>7620.63</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>377003154</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Dawn</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Stewart</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>15617.92</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>799822688</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Melissa</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Bennett</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>2016</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5506.61</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>867768179</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Brittany</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Butler</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>2003</v>
+      </c>
+      <c r="F16" t="n">
+        <v>15195.77</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>819790953</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Philip</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Dawson</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F17" t="n">
+        <v>9681.09</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>873966971</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Marissa</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Horne</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>2016</v>
+      </c>
+      <c r="F18" t="n">
+        <v>10306.34</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>833618952</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Charles</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Munoz</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>2002</v>
+      </c>
+      <c r="F19" t="n">
+        <v>10351.2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>745153593</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Shannon</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Gonzales</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>2011</v>
+      </c>
+      <c r="F20" t="n">
+        <v>14033.02</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>641677248</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Lisa</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Gilbert</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>2013</v>
+      </c>
+      <c r="F21" t="n">
+        <v>8879.91</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>206801037</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Elizabeth</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Barajas</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>2012</v>
+      </c>
+      <c r="F22" t="n">
+        <v>4468.4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>694368200</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Kurt</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Odom</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>2009</v>
+      </c>
+      <c r="F23" t="n">
+        <v>12938.67</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>101864077</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Phyllis</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Pittman</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>2009</v>
+      </c>
+      <c r="F24" t="n">
+        <v>4543.32</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>737546454</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Robin</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Leon</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>2013</v>
+      </c>
+      <c r="F25" t="n">
+        <v>17899.34</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>219578559</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Brandon</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Owen</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>2003</v>
+      </c>
+      <c r="F26" t="n">
+        <v>3076.5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>924562729</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Oscar</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>2010</v>
+      </c>
+      <c r="F27" t="n">
+        <v>3489.89</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>790833788</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Sandra</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Hines</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>2012</v>
+      </c>
+      <c r="F28" t="n">
+        <v>12132.35</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>460194910</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>William</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>2005</v>
+      </c>
+      <c r="F29" t="n">
+        <v>15141.77</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>897770410</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Cassandra</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>York</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>2007</v>
+      </c>
+      <c r="F30" t="n">
+        <v>14550.07</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>112335049</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Regina</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Obrien</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>2015</v>
+      </c>
+      <c r="F31" t="n">
+        <v>7216.75</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>817062895</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Gerald</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Reynolds</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>2009</v>
+      </c>
+      <c r="F32" t="n">
+        <v>3460.94</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>261164133</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Newton</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>2012</v>
+      </c>
+      <c r="F33" t="n">
+        <v>9201.9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>324159195</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Christopher</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Ellis</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F34" t="n">
+        <v>14326.49</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>398353462</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Alicia</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>2005</v>
+      </c>
+      <c r="F35" t="n">
+        <v>7673.87</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>937158969</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Edward</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Robinson</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>2013</v>
+      </c>
+      <c r="F36" t="n">
+        <v>9185.18</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>328124445</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Preston</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Frazier</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>2009</v>
+      </c>
+      <c r="F37" t="n">
+        <v>12242.16</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>388724551</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Eric</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Cochran</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F38" t="n">
+        <v>16445.8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>791785536</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Christopher</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Petty</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F39" t="n">
+        <v>4320.41</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>623982110</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>2011</v>
+      </c>
+      <c r="F40" t="n">
+        <v>9308.41</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>425885462</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Dawn</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>2008</v>
+      </c>
+      <c r="F41" t="n">
+        <v>13007.02</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>894715361</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Pace</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>2004</v>
+      </c>
+      <c r="F42" t="n">
+        <v>3967.51</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>294121640</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Brent</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Morales</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F43" t="n">
+        <v>9347.73</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>144469291</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Richard</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Lucas</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>2013</v>
+      </c>
+      <c r="F44" t="n">
+        <v>13808.5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>380889371</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>2004</v>
+      </c>
+      <c r="F45" t="n">
+        <v>13628.44</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>595537283</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Tracy</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Clark</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="n">
+        <v>4212.79</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>531843627</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Diana</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Patel</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>2011</v>
+      </c>
+      <c r="F47" t="n">
+        <v>3443.44</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>465905492</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Elizabeth</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Khan</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>2009</v>
+      </c>
+      <c r="F48" t="n">
+        <v>3675.98</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>982746045</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Ray</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Reid</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>2016</v>
+      </c>
+      <c r="F49" t="n">
+        <v>16053.96</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>231033383</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Travis</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Gilbert</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>2019</v>
+      </c>
+      <c r="F50" t="n">
+        <v>6726.55</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>109152163</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Gregory</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Meza</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>2002</v>
+      </c>
+      <c r="F51" t="n">
+        <v>11622.22</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>930242164</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Molly</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Tran</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F52" t="n">
+        <v>8950.76</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>752910515</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Heather</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Elliott</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>2003</v>
+      </c>
+      <c r="F53" t="n">
+        <v>8137.07</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>643833900</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Barnett</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>2007</v>
+      </c>
+      <c r="F54" t="n">
+        <v>9728.809999999999</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>629706526</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Lisa</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Ferguson</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>2003</v>
+      </c>
+      <c r="F55" t="n">
+        <v>10589.86</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>622101298</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Ryan</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Aguilar</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>2015</v>
+      </c>
+      <c r="F56" t="n">
+        <v>6000.38</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>943396246</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>William</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Huber</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>2019</v>
+      </c>
+      <c r="F57" t="n">
+        <v>16277.7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>469724560</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Pamela</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F58" t="n">
+        <v>11102.27</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>335405845</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Shane</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Moreno</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F59" t="n">
+        <v>13752.69</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>886125339</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Booth</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F60" t="n">
+        <v>8902.719999999999</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>275590956</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Elizabeth</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Morrison</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>2003</v>
+      </c>
+      <c r="F61" t="n">
+        <v>10026.23</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>970177958</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Haley</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Curtis</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="n">
+        <v>11520.57</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>979303721</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Dawn</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Ford</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="n">
+        <v>3038.33</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>465337277</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Craig</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Matthews</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="n">
+        <v>9478.049999999999</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>146061283</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Laura</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Mcintyre</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>2002</v>
+      </c>
+      <c r="F65" t="n">
+        <v>11497.51</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>144032798</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Billy</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Hull</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="n">
+        <v>8833.620000000001</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>928682834</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Emily</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Alvarez</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>2006</v>
+      </c>
+      <c r="F67" t="n">
+        <v>10719.93</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>200330050</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Sergio</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="n">
+        <v>12409.45</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>988548965</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Brian</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>2007</v>
+      </c>
+      <c r="F69" t="n">
+        <v>15314.09</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>845129024</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Kathleen</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>2012</v>
+      </c>
+      <c r="F70" t="n">
+        <v>17599.74</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>735856158</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Patrick</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Gomez</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>2005</v>
+      </c>
+      <c r="F71" t="n">
+        <v>16914.19</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>896760779</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Phillip</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Andrews</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F72" t="n">
+        <v>10125.9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>775257507</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Brandon</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Clark</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F73" t="n">
+        <v>14838.3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>563476151</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Mcdowell</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>2010</v>
+      </c>
+      <c r="F74" t="n">
+        <v>15013.29</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>933996443</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Dawn</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Salinas</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>2012</v>
+      </c>
+      <c r="F75" t="n">
+        <v>7004.87</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>282642007</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Lopez</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>2013</v>
+      </c>
+      <c r="F76" t="n">
+        <v>4577.29</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>751743506</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Joshua</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Larson</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>2005</v>
+      </c>
+      <c r="F77" t="n">
+        <v>12161.4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>478488510</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Sara</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>King</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>2010</v>
+      </c>
+      <c r="F78" t="n">
+        <v>13121.36</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>613185077</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Larry</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Rodriguez</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>2011</v>
+      </c>
+      <c r="F79" t="n">
+        <v>8215.65</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>859622176</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Timothy</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Padilla</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="n">
+        <v>8363.639999999999</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>988374040</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Laura</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="n">
+        <v>8824.16</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>780552972</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Jonathan</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Stephens</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>2001</v>
+      </c>
+      <c r="F82" t="n">
+        <v>14074.91</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>551281686</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Carl</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Jackson</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>2004</v>
+      </c>
+      <c r="F83" t="n">
+        <v>15635.57</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>200282745</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Kelli</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Yang</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F84" t="n">
+        <v>13284.81</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>545959323</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Hendrix</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>2004</v>
+      </c>
+      <c r="F85" t="n">
+        <v>13374.75</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>509664016</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Walter</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Hunter</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>2004</v>
+      </c>
+      <c r="F86" t="n">
+        <v>8964.200000000001</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>685761426</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Brian</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Griffith</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>2005</v>
+      </c>
+      <c r="F87" t="n">
+        <v>7049.59</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>552738626</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Stephanie</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Graham</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>2019</v>
+      </c>
+      <c r="F88" t="n">
+        <v>11055.61</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>400041306</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Tristan</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Gillespie</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>2011</v>
+      </c>
+      <c r="F89" t="n">
+        <v>9012.48</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>345601141</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Lopez</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F90" t="n">
+        <v>17956.55</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>370054017</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>April</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>2015</v>
+      </c>
+      <c r="F91" t="n">
+        <v>13755.7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>436985520</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Debbie</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Braun</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="n">
+        <v>7728.71</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>823429175</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Jorge</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Schultz</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>2015</v>
+      </c>
+      <c r="F93" t="n">
+        <v>9798.75</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>933854400</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Kathleen</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>2014</v>
+      </c>
+      <c r="F94" t="n">
+        <v>7431.12</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>846759675</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Kristine</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Cain</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>2002</v>
+      </c>
+      <c r="F95" t="n">
+        <v>8832.65</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>542760108</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Jeffrey</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>2001</v>
+      </c>
+      <c r="F96" t="n">
+        <v>7818.4</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>971864235</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Lisa</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Chavez</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>2008</v>
+      </c>
+      <c r="F97" t="n">
+        <v>13682.27</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>965545272</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Larry</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Ramos</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>2013</v>
+      </c>
+      <c r="F98" t="n">
+        <v>5200.51</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>584914079</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Sheila</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Ramirez</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>2003</v>
+      </c>
+      <c r="F99" t="n">
+        <v>17240.83</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>414310689</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Marcus</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>2011</v>
+      </c>
+      <c r="F100" t="n">
+        <v>5799.47</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>139266014</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Stephen</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Sawyer</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>2010</v>
+      </c>
+      <c r="F101" t="n">
+        <v>16929</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>333445555</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Mia</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Chen</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>2016</v>
+      </c>
+      <c r="F102" t="n">
+        <v>10318.47</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>555667777</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Zoe</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Lopez</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="n">
+        <v>6428.76</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>300005R</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
           <t>666778888</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C104" t="inlineStr">
         <is>
           <t>Evan</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D104" t="inlineStr">
         <is>
           <t>Stone</t>
         </is>
       </c>
-      <c r="E4" t="n">
+      <c r="E104" t="n">
         <v>1800</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F104" t="n">
         <v>-100</v>
       </c>
     </row>
